--- a/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,49; 4,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,71; 8,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>2,76; 10,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,49; 4,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>4,84; 11,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,09; 10,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,98; 3,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,8; 8,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,06; 8,94</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,66; 5,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,73; 6,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,87; 3,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,99; 5,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,65; 6,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>1,32; 4,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,28; 4,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,86; 8,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,5; 5,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,23; 4,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,49; 3,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,3; 6,21</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,42; 4,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,27; 4,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,34; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,74; 4,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,68; 4,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>2,09; 6,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,59; 5,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,81; 3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,93; 3,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,1; 4,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,01; 4,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,04; 3,18</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,37; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,94; 5,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>1,15; 5,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,37; 6,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>3,73; 9,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,07; 6,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>1,39; 4,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,77; 3,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,17; 6,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,84; 5,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,58; 4,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,83; 3,57</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>2,56; 9,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,99; 5,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>2,36; 10,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,21; 6,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>1,21; 8,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>1,03; 6,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>1,24; 7,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,41; 6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,51; 7,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,49; 5,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,41; 7,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,64; 4,98</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>1,14; 5,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,41; 3,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,71; 5,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0,5; 4,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>2,47; 8,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>3,48; 9,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,54; 2,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,53; 3,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,28; 6,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>2,35; 5,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,83; 3,16</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,28; 5,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,4; 5,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,49; 2,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,0; 5,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,58; 4,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,61; 4,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,27; 4,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,92; 7,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,25; 4,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,28; 4,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,16; 3,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,04; 5,79</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,73; 7,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,95; 4,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,12; 4,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,36; 5,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,33; 5,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,63; 5,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,05; 4,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,41; 6,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,35; 5,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,56; 4,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,37; 4,42</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,16; 5,42</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,74; 4,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,72; 4,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,26; 3,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,59; 4,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,85; 4,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,98; 4,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,87; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>3,34; 4,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,94; 3,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,99; 3,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,78; 3,78</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,19; 4,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 7,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,98</t>
+          <t>3,22; 15,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,22; 8,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,27</t>
+          <t>4,32; 11,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 6,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,94</t>
+          <t>4,41; 10,76</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,79</t>
+          <t>1,93; 5,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,13</t>
+          <t>3,85; 8,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,21</t>
+          <t>3,22; 6,12</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,49</t>
+          <t>0,78; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,25</t>
+          <t>0,81; 3,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,18</t>
+          <t>1,06; 3,23</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,41</t>
+          <t>1,33; 6,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 6,25</t>
+          <t>0,36; 6,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,48</t>
+          <t>2,43; 7,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,48</t>
+          <t>0,57; 2,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,31</t>
+          <t>2,36; 5,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,57</t>
+          <t>0,72; 3,31</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,25</t>
+          <t>1,2; 6,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,51</t>
+          <t>1,38; 5,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,98</t>
+          <t>1,62; 4,76</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,03</t>
+          <t>0,7; 5,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,95</t>
+          <t>0,54; 2,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,16</t>
+          <t>0,81; 3,14</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,58</t>
+          <t>2,02; 5,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,25</t>
+          <t>1,96; 6,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,79</t>
+          <t>2,47; 5,43</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,33</t>
+          <t>1,2; 4,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,6</t>
+          <t>3,34; 6,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,42</t>
+          <t>2,18; 4,91</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,15</t>
+          <t>2,35; 4,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,34; 4,76</t>
+          <t>3,03; 4,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,23</t>
+          <t>2,92; 4,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,45</t>
+          <t>0,5; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,07</t>
+          <t>1,57; 7,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,59</t>
+          <t>2,93; 8,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 15,24</t>
+          <t>2,81; 14,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,58</t>
+          <t>0,49; 4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,01</t>
+          <t>2,38; 8,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,72</t>
+          <t>4,91; 11,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,03</t>
+          <t>4,18; 10,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,88</t>
+          <t>0,95; 3,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,53</t>
+          <t>2,66; 6,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,93</t>
+          <t>4,55; 8,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,76</t>
+          <t>4,58; 11,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,21</t>
+          <t>1,5; 5,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,91</t>
+          <t>2,68; 6,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,89</t>
+          <t>0,84; 4,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,72</t>
+          <t>2,15; 6,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,53</t>
+          <t>2,6; 6,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,5</t>
+          <t>1,2; 4,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,69</t>
+          <t>1,28; 4,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,05</t>
+          <t>3,84; 7,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,38</t>
+          <t>2,56; 5,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,92</t>
+          <t>2,22; 4,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,86</t>
+          <t>1,54; 3,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,12</t>
+          <t>3,29; 5,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,25</t>
+          <t>0,43; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,88</t>
+          <t>1,2; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,82</t>
+          <t>1,32; 5,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,63</t>
+          <t>0,86; 4,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,09</t>
+          <t>0,68; 4,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,52</t>
+          <t>2,12; 6,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,8</t>
+          <t>1,57; 5,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,26</t>
+          <t>0,89; 3,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,17</t>
+          <t>0,93; 3,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,81</t>
+          <t>2,18; 5,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,95</t>
+          <t>1,99; 4,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,23</t>
+          <t>1,01; 3,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,83</t>
+          <t>1,39; 5,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,02</t>
+          <t>1,5; 6,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,23</t>
+          <t>1,12; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,24</t>
+          <t>0,38; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,18</t>
+          <t>3,81; 9,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,09</t>
+          <t>2,53; 7,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,94</t>
+          <t>1,37; 4,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,98</t>
+          <t>0,57; 3,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,74</t>
+          <t>3,13; 6,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,56</t>
+          <t>2,3; 5,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,19</t>
+          <t>1,66; 4,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,31</t>
+          <t>0,68; 3,24</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,0</t>
+          <t>2,13; 8,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,39</t>
+          <t>1,04; 5,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,35</t>
+          <t>1,93; 10,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,31</t>
+          <t>1,12; 5,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,01</t>
+          <t>1,25; 7,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,01</t>
+          <t>1,02; 6,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,99</t>
+          <t>1,25; 7,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,92</t>
+          <t>1,45; 6,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,0</t>
+          <t>2,44; 6,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,04</t>
+          <t>1,53; 4,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,36</t>
+          <t>2,38; 7,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,76</t>
+          <t>1,59; 4,67</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,21</t>
+          <t>1,16; 5,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,98</t>
+          <t>0,4; 4,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,0</t>
+          <t>0,59; 4,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,72</t>
+          <t>0,5; 4,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,36</t>
+          <t>2,39; 7,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,16</t>
+          <t>3,45; 9,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,91</t>
+          <t>0,5; 3,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,15</t>
+          <t>0,5; 3,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,04</t>
+          <t>2,24; 5,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,55</t>
+          <t>2,35; 5,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,14</t>
+          <t>0,75; 3,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,81</t>
+          <t>2,19; 5,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,87</t>
+          <t>2,21; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,94</t>
+          <t>0,5; 3,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,6</t>
+          <t>2,19; 5,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,63</t>
+          <t>1,67; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,06</t>
+          <t>1,59; 4,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,27</t>
+          <t>1,12; 4,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,58</t>
+          <t>1,74; 6,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,57</t>
+          <t>2,27; 4,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,37</t>
+          <t>2,26; 4,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,08</t>
+          <t>1,14; 2,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,43</t>
+          <t>2,47; 5,57</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,57</t>
+          <t>3,71; 7,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,77</t>
+          <t>1,91; 4,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,92</t>
+          <t>2,19; 5,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,53</t>
+          <t>1,21; 4,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,61</t>
+          <t>2,34; 5,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,61</t>
+          <t>2,54; 5,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,7</t>
+          <t>2,17; 4,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,44</t>
+          <t>3,31; 6,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,98</t>
+          <t>3,44; 5,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,66</t>
+          <t>2,53; 4,58</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,42</t>
+          <t>2,46; 4,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,91</t>
+          <t>2,12; 4,88</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,21</t>
+          <t>2,7; 4,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,11</t>
+          <t>2,68; 4,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,56</t>
+          <t>2,24; 3,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,16</t>
+          <t>2,39; 4,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,2</t>
+          <t>2,83; 4,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,4</t>
+          <t>2,95; 4,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,24</t>
+          <t>2,93; 4,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,03; 4,57</t>
+          <t>3,13; 4,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,99</t>
+          <t>3,0; 4,01</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,95</t>
+          <t>3,03; 3,97</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,78</t>
+          <t>2,77; 3,72</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,16</t>
+          <t>2,92; 4,19</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por ortodoncia</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3728</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9398</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12627</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21354</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11647</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19270</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19605</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7575</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21045</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31897</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>951; 8469</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3943; 18549</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7188; 21327</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8579; 43562</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>989; 9740</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5941; 21246</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12085; 29414</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12018; 30626</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3721; 14196</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13282; 33285</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22388; 43163</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27164; 66026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18013</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7977</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17747</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18702</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11241</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10274</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27756</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31089</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29254</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18251</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45503</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6160; 21033</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10891; 27234</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3053; 14995</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10917; 31044</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11455; 28802</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5251; 19693</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5037; 17728</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19254; 39203</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21820; 43330</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18765; 41244</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11619; 27076</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>33220; 60442</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7555</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9079</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5774</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12906</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9979</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5884</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9773</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20461</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19058</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12226</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1018; 9181</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3525; 13604</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3823; 15910</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2577; 14541</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1952; 11752</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6982; 21667</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4846; 18279</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3000; 11438</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4881; 17520</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13572; 31890</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11932; 28924</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6414; 20359</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8198</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9410</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8231</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5389</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18313</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14917</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9575</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6530</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26510</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24327</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17805</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11919</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3706; 15563</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4693; 19652</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3685; 16421</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1178; 23457</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11427; 28646</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8676; 26142</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4793; 16864</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2687; 14485</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17737; 37855</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15054; 36360</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11294; 29444</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5321; 25406</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8242</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6016</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6623</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5843</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5337</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5846</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14866</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10902</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11353</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10702</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3633; 14867</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1989; 11180</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2298; 12049</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1887; 9712</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2168; 13405</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1988; 11913</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1816; 10687</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2942; 13613</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8398; 22729</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5907; 18499</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6296; 18719</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5877; 17325</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12361</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14450</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5837</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>19358</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>18224</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7926</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6530</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2887; 13373</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>926; 9453</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1485; 11817</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1022; 9037</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6317; 21089</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8516; 23514</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1230; 7507</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1975; 11804</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11540; 30693</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11276; 26533</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3773; 16763</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17253</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>21798</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6479</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21073</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15530</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16888</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11247</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36136</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32783</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>38686</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>17726</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>57208</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10156; 25619</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12683; 34572</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2192; 14030</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13151; 32593</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8989; 25335</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9932; 27054</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5469; 20870</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14383; 55514</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22775; 45102</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27097; 53585</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10554; 27810</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>35225; 79539</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28620</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19164</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>21582</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>26064</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>22359</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>27136</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>22944</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>33371</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>50979</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>46300</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>44526</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>59436</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19510; 40194</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>12089; 29549</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>14036; 32563</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>10977; 42442</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>13842; 32706</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>17869; 39881</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>14984; 34433</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>23304; 45667</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>38409; 66871</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>33861; 61244</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>32694; 59168</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>34251; 78707</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>84321</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>97394</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>107520</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>95091</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>112940</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>103076</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>138358</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>179412</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>210334</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>178841</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>245878</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>66285; 103953</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>78057; 117722</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>59575; 96885</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>80315; 140899</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>77527; 117081</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>92956; 137195</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>84044; 123999</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>112051; 168116</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>156069; 208510</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>183513; 240628</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>153420; 205803</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>202167; 290346</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>